--- a/ziyuan/栅格模板月报.xlsx
+++ b/ziyuan/栅格模板月报.xlsx
@@ -1,25 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Seafile\snmp\共济自定义报表程序\bmsreport\ziyuan\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8235"/>
+    <workbookView activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="5">
   <si>
     <t>test</t>
   </si>
@@ -39,29 +35,29 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="178" formatCode="yyyy&quot;年&quot;m&quot;月&quot;;@"/>
+    <numFmt formatCode="yyyy&quot;年&quot;m&quot;月&quot;;@" numFmtId="164"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="等线"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <name val="等线"/>
+      <charset val="134"/>
+      <family val="3"/>
       <sz val="9"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -77,25 +73,17 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+  <cellXfs count="3">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="常规" xfId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
 </styleSheet>
 </file>
 
@@ -395,25 +383,29 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:B14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.25" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="14.875" customWidth="1"/>
-    <col min="2" max="2" width="16" customWidth="1"/>
+    <col customWidth="1" max="1" min="1" width="14.875"/>
+    <col customWidth="1" max="2" min="2" width="16"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2">
       <c r="B1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -421,7 +413,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -429,64 +421,84 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" s="1">
+    <row r="4" spans="1:2">
+      <c r="A4" s="2" t="n">
         <v>43313</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" s="1">
+    <row r="5" spans="1:2">
+      <c r="A5" s="2" t="n">
         <v>43344</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" s="1">
+    <row r="6" spans="1:2">
+      <c r="A6" s="2" t="n">
         <v>43374</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7" s="1">
+    <row r="7" spans="1:2">
+      <c r="A7" s="2" t="n">
         <v>43405</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8" s="1">
+    <row r="8" spans="1:2">
+      <c r="A8" s="2" t="n">
         <v>43435</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A9" s="1">
+    <row r="9" spans="1:2">
+      <c r="A9" s="2" t="n">
         <v>43466</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A10" s="1">
+    <row r="10" spans="1:2">
+      <c r="A10" s="2" t="n">
         <v>43497</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A11" s="1">
+    <row r="11" spans="1:2">
+      <c r="A11" s="2" t="n">
         <v>43525</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A12" s="1">
+    <row r="12" spans="1:2">
+      <c r="A12" s="2" t="n">
         <v>43556</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A13" s="1">
+    <row r="13" spans="1:2">
+      <c r="A13" s="2" t="n">
         <v>43586</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A14" s="1">
+    <row r="14" spans="1:2">
+      <c r="A14" s="2" t="n">
         <v>43617</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="portrait" paperSize="9"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A3:A3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.25"/>
+  <sheetData>
+    <row r="3" spans="1:1"/>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>